--- a/NEW HR/DONE/ANGCAYA, RESTIE.xlsx
+++ b/NEW HR/DONE/ANGCAYA, RESTIE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>PERIOD</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>VL(21-0-0)</t>
+  </si>
+  <si>
+    <t>9/1-29/2023</t>
   </si>
 </sst>
 </file>
@@ -3238,10 +3244,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A64" activePane="bottomLeft"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3402,7 +3408,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>60</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3412,7 +3418,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>85</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4810,15 +4816,19 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4826,15 +4836,19 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4842,15 +4856,19 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4858,15 +4876,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4874,15 +4896,19 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -4890,7 +4916,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4906,7 +4934,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45200</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -5752,10 +5782,10 @@
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5919,7 +5949,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>64.332999999999998</v>
+        <v>43.332999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5935,7 +5965,9 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+      <c r="A10" s="48" t="s">
+        <v>50</v>
+      </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
       <c r="D10" s="39"/>
@@ -5955,10 +5987,16 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="39"/>
+      <c r="D11" s="39">
+        <v>21</v>
+      </c>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
       <c r="G11" s="13" t="str">
@@ -5968,7 +6006,9 @@
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="20"/>
+      <c r="K11" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
@@ -7897,7 +7937,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
